--- a/Tussock_Dataset.xlsx
+++ b/Tussock_Dataset.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hudson\Meu Drive\3. Pesquisa\2019.1. Tussock mortality and reproduction\Analyses\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hudson\Meu Drive\3. Pesquisa\2019.1. TUSSOCK MORTALITY AND REPRODUCTION\Analyses\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB54F54-C4EE-4112-A1FB-DAE43E1078EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0EF61-7B35-4FC1-8D93-23CF2C303829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A75964CF-A6C4-412D-B3A9-6A5DCC70F07A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A75964CF-A6C4-412D-B3A9-6A5DCC70F07A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_General" sheetId="1" r:id="rId1"/>
-    <sheet name="Data_Resprouting" sheetId="5" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="6" r:id="rId1"/>
+    <sheet name="Data_General" sheetId="1" r:id="rId2"/>
+    <sheet name="Data_Resprouting" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_General!$A$1:$M$451</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_Resprouting!$A$1:$G$3151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_General!$A$1:$M$451</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data_Resprouting!$A$1:$G$3151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17570" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17609" uniqueCount="494">
   <si>
     <t>C1</t>
   </si>
@@ -1460,6 +1461,69 @@
   <si>
     <t>F274</t>
   </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Species accepted name</t>
+  </si>
+  <si>
+    <t>Control (fire-exclusion, unburned) or Fire (burned)</t>
+  </si>
+  <si>
+    <t>Plot identifier</t>
+  </si>
+  <si>
+    <t>Individual identifier</t>
+  </si>
+  <si>
+    <t>States if the individual survived (1), died (0), or was missing (NA).</t>
+  </si>
+  <si>
+    <t>States if the individual flowered (1), or not (0), or was missing (NA)</t>
+  </si>
+  <si>
+    <t>Number of inflorescences when individuals were tagged prior to fire</t>
+  </si>
+  <si>
+    <t>Number of inflorescences produced in the post-fire season</t>
+  </si>
+  <si>
+    <t>Basal area of individuals prior to fire</t>
+  </si>
+  <si>
+    <t>Basal area of individuals six months after fire</t>
+  </si>
+  <si>
+    <t>Vegetative height of individuals prior to fire</t>
+  </si>
+  <si>
+    <t>Vegetative height of individuals six months after fire</t>
+  </si>
+  <si>
+    <t>Height of the tallest reproductive culm prior to fire</t>
+  </si>
+  <si>
+    <t>Describes which post-fire month (1 to 6, and 16) observations were taken</t>
+  </si>
+  <si>
+    <t>States if the individual had resprouted (1; showed green leaves), or not (0), or was missing (NA)</t>
+  </si>
+  <si>
+    <t>Aristida riparia</t>
+  </si>
+  <si>
+    <t>Schizachyrium microstachyum</t>
+  </si>
+  <si>
+    <t>Trachypogon spicatus</t>
+  </si>
+  <si>
+    <t>Species accepted names</t>
+  </si>
 </sst>
 </file>
 
@@ -1488,7 +1552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1501,8 +1565,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1510,11 +1580,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,6 +1625,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1893,12 +1982,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6C269-2AED-4FA4-AB90-6EF5737B989B}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="143.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E80A06-6E2F-4A11-92D6-DB083AEC5959}">
   <dimension ref="A1:N451"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19306,7 +19570,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M451" xr:uid="{D5E80A06-6E2F-4A11-92D6-DB083AEC5959}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M451">
     <sortCondition ref="A2:A451"/>
     <sortCondition ref="B2:B451"/>
@@ -19347,11 +19610,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397BD076-DEC0-4E9C-B9CE-2E8FD92B030C}">
   <dimension ref="A1:G3151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -91535,7 +91798,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G3151" xr:uid="{397BD076-DEC0-4E9C-B9CE-2E8FD92B030C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3151">
     <sortCondition ref="B2:B3151"/>
     <sortCondition ref="A2:A3151"/>
